--- a/statistics/HistoricalDistanceData/historical_distance/Q13451278-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q13451278-en.xlsx
@@ -31,46 +31,79 @@
     <t>uri</t>
   </si>
   <si>
+    <t>New storms headed for Midwest, Northeast</t>
+  </si>
+  <si>
+    <t>Preliminary Information for the December 2007 Ice Storm in Oklahoma</t>
+  </si>
+  <si>
     <t>Ice coats nation’s midsection</t>
   </si>
   <si>
+    <t>Northeast could see double winter whammy</t>
+  </si>
+  <si>
+    <t>Ice Storm Brings Misery, Death to Midwest</t>
+  </si>
+  <si>
     <t>Blizzard that walloped Ont., Que., heads to Eastern Canada</t>
   </si>
   <si>
-    <t>Northeast could see double winter whammy</t>
-  </si>
-  <si>
-    <t>Preliminary Information for the December 2007 Ice Storm in Oklahoma</t>
-  </si>
-  <si>
-    <t>Ice Storm Brings Misery, Death to Midwest</t>
-  </si>
-  <si>
-    <t>New storms headed for Midwest, Northeast</t>
+    <t>Ice and Snow Storm of December 13th</t>
+  </si>
+  <si>
+    <t>March 23, 2007 Severe Weather Event</t>
+  </si>
+  <si>
+    <t>December 16-17, 2007 Winter Storms</t>
   </si>
   <si>
     <t>NWS SGF Winter Summary</t>
   </si>
   <si>
+    <t>National Weather Service Forecast Office</t>
+  </si>
+  <si>
+    <t>Oklahomans catch a break</t>
+  </si>
+  <si>
+    <t>New rain, ice hamper storm recovery effort</t>
+  </si>
+  <si>
+    <t>NOAA's National Weather Service</t>
+  </si>
+  <si>
+    <t>NWS Des Moines, IA Winter Weather Information</t>
+  </si>
+  <si>
+    <t>'Nasty' winter storms cause traffic deaths, delays</t>
+  </si>
+  <si>
+    <t>Furious snow storm blows north, blankets Great Lakes states</t>
+  </si>
+  <si>
+    <t>NOAA's NWS Forecast Office-Caribou, Maine-Snowfall Totals for the 11-12 Dec 2007 Winter Storm</t>
+  </si>
+  <si>
+    <t>Winter Storm Summary</t>
+  </si>
+  <si>
+    <t>Midwest buried under heap of snow</t>
+  </si>
+  <si>
+    <t>Storm Prediction Center 20071215's Storm Reports</t>
+  </si>
+  <si>
+    <t>From the Wichita National Weather Service Press</t>
+  </si>
+  <si>
     <t>Tampa Bay Area Aviation Weather Page</t>
   </si>
   <si>
-    <t>Winter Storm Summary</t>
-  </si>
-  <si>
-    <t>From the Wichita National Weather Service Press</t>
-  </si>
-  <si>
-    <t>NOAA's National Weather Service</t>
-  </si>
-  <si>
-    <t>Ice and Snow Storm of December 13th</t>
-  </si>
-  <si>
-    <t>December 16-17, 2007 Winter Storms</t>
-  </si>
-  <si>
-    <t>NWS Des Moines, IA Winter Weather Information</t>
+    <t>Winter Weather Event</t>
+  </si>
+  <si>
+    <t>snowfallTotals</t>
   </si>
   <si>
     <t>2007Dec10</t>
@@ -82,57 +115,24 @@
     <t>Dec 9-10 Ice Storm Summary</t>
   </si>
   <si>
-    <t>NOAA's NWS Forecast Office-Caribou, Maine-Snowfall Totals for the 11-12 Dec 2007 Winter Storm</t>
-  </si>
-  <si>
-    <t>Oklahomans catch a break</t>
-  </si>
-  <si>
-    <t>Furious snow storm blows north, blankets Great Lakes states</t>
-  </si>
-  <si>
-    <t>Winter Weather Event</t>
-  </si>
-  <si>
-    <t>National Weather Service Forecast Office</t>
-  </si>
-  <si>
-    <t>March 23, 2007 Severe Weather Event</t>
-  </si>
-  <si>
-    <t>Storm Prediction Center 20071215's Storm Reports</t>
-  </si>
-  <si>
-    <t>'Nasty' winter storms cause traffic deaths, delays</t>
-  </si>
-  <si>
-    <t>New rain, ice hamper storm recovery effort</t>
-  </si>
-  <si>
-    <t>snowfallTotals</t>
-  </si>
-  <si>
-    <t>Midwest buried under heap of snow</t>
+    <t>2007-12-15T03:21:08UTC</t>
+  </si>
+  <si>
+    <t>2007-12-08T00:00:00UTC</t>
   </si>
   <si>
     <t>2007-12-11T03:56:00UTC</t>
   </si>
   <si>
+    <t>2007-12-13T01:55:23UTC</t>
+  </si>
+  <si>
+    <t>2009-02-26T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2007-12-16T00:00:00UTC</t>
   </si>
   <si>
-    <t>2007-12-13T01:55:23UTC</t>
-  </si>
-  <si>
-    <t>2007-12-08T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2009-02-26T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2007-12-15T03:21:08UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
@@ -142,46 +142,79 @@
     <t>day_31_beyond</t>
   </si>
   <si>
+    <t>http://www.nbcnews.com/id/22239846</t>
+  </si>
+  <si>
+    <t>http://www.srh.noaa.gov/oun/wxevents/20071208/photos.php</t>
+  </si>
+  <si>
     <t>http://www.nbcnews.com/id/22173398</t>
   </si>
   <si>
+    <t>http://www.nbcnews.com/id/22197793</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/US/wireStory?id=3983346</t>
+  </si>
+  <si>
     <t>https://www.cbc.ca/news/canada/blizzard-that-walloped-ont-que-heads-to-eastern-canada-1.630843</t>
   </si>
   <si>
-    <t>http://www.nbcnews.com/id/22197793</t>
-  </si>
-  <si>
-    <t>http://www.srh.noaa.gov/oun/wxevents/20071208/photos.php</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/US/wireStory?id=3983346</t>
-  </si>
-  <si>
-    <t>http://www.nbcnews.com/id/22239846</t>
+    <t>http://www.erh.noaa.gov/ctp/features/2007/12_13/index.php</t>
+  </si>
+  <si>
+    <t>http://www.srh.noaa.gov/abq/quickfeatures/Dec2007/RainSnowEventDec7-12.php</t>
+  </si>
+  <si>
+    <t>http://www.erh.noaa.gov/btv/events/16-17Dec2007/16-17Dec2007.shtml</t>
   </si>
   <si>
     <t>http://www.crh.noaa.gov/sgf/?n=icestormsummarydec07</t>
   </si>
   <si>
+    <t>https://web.archive.org/web/20080511204226/http://www.erh.noaa.gov/btv/events/IceStorm1998/ice98.shtml</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20071215171743/http://edition.cnn.com/2007/US/weather/12/15/winter.storm.ap/index.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20071213204855/http://edition.cnn.com/2007/US/weather/12/12/winter.storm.ap/index.html</t>
+  </si>
+  <si>
+    <t>http://www.erh.noaa.gov/er/bgm/WeatherEvents/Snow/april162007/april162007.shtml</t>
+  </si>
+  <si>
+    <t>http://www.crh.noaa.gov/dmx/winterwx-post.php</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20071218174133/http://edition.cnn.com/2007/US/weather/12/17/winter.storm.ap/index.html</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20071217224528/http://edition.cnn.com/2007/US/weather/12/16/winter.storm.ap/index.html</t>
+  </si>
+  <si>
+    <t>http://www.erh.noaa.gov/car/News_Items/2007-12-12_item001.htm</t>
+  </si>
+  <si>
+    <t>http://www.crh.noaa.gov/sgf/?n=snowsummary121507</t>
+  </si>
+  <si>
+    <t>http://edition.cnn.com/2007/US/weather/12/15/winter.storm.ap/index.html</t>
+  </si>
+  <si>
+    <t>http://www.spc.noaa.gov/climo/reports/071215_rpts.html</t>
+  </si>
+  <si>
+    <t>http://www.crh.noaa.gov/ict/scripts/viewstory.php?STORY_NUMBER=2007121516</t>
+  </si>
+  <si>
     <t>http://www.srh.noaa.gov/tbw/html/tbw/getprodversionnew.php?pil=PNS&amp;sid=TBW&amp;max=10&amp;</t>
   </si>
   <si>
-    <t>http://www.crh.noaa.gov/sgf/?n=snowsummary121507</t>
-  </si>
-  <si>
-    <t>http://www.crh.noaa.gov/ict/scripts/viewstory.php?STORY_NUMBER=2007121516</t>
-  </si>
-  <si>
-    <t>http://www.erh.noaa.gov/er/bgm/WeatherEvents/Snow/april162007/april162007.shtml</t>
-  </si>
-  <si>
-    <t>http://www.erh.noaa.gov/ctp/features/2007/12_13/index.php</t>
-  </si>
-  <si>
-    <t>http://www.erh.noaa.gov/btv/events/16-17Dec2007/16-17Dec2007.shtml</t>
-  </si>
-  <si>
-    <t>http://www.crh.noaa.gov/dmx/winterwx-post.php</t>
+    <t>http://www.ok.gov/OEM/Emergencies_&amp;_Disasters/2007/Winter_Weather_Event_20071209_-_Master/</t>
+  </si>
+  <si>
+    <t>http://www.crh.noaa.gov/bou/?n=snowfalltotals_121107</t>
   </si>
   <si>
     <t>http://www.crh.noaa.gov/eax/?n=december10-11,2007icestorm</t>
@@ -191,39 +224,6 @@
   </si>
   <si>
     <t>http://www.srh.noaa.gov/tsa/weather-events/IceStormDec10/Index.htm</t>
-  </si>
-  <si>
-    <t>http://www.erh.noaa.gov/car/News_Items/2007-12-12_item001.htm</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20071215171743/http://edition.cnn.com/2007/US/weather/12/15/winter.storm.ap/index.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20071217224528/http://edition.cnn.com/2007/US/weather/12/16/winter.storm.ap/index.html</t>
-  </si>
-  <si>
-    <t>http://www.ok.gov/OEM/Emergencies_&amp;_Disasters/2007/Winter_Weather_Event_20071209_-_Master/</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20080511204226/http://www.erh.noaa.gov/btv/events/IceStorm1998/ice98.shtml</t>
-  </si>
-  <si>
-    <t>http://www.srh.noaa.gov/abq/quickfeatures/Dec2007/RainSnowEventDec7-12.php</t>
-  </si>
-  <si>
-    <t>http://www.spc.noaa.gov/climo/reports/071215_rpts.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20071218174133/http://edition.cnn.com/2007/US/weather/12/17/winter.storm.ap/index.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20071213204855/http://edition.cnn.com/2007/US/weather/12/12/winter.storm.ap/index.html</t>
-  </si>
-  <si>
-    <t>http://www.crh.noaa.gov/bou/?n=snowfalltotals_121107</t>
-  </si>
-  <si>
-    <t>http://edition.cnn.com/2007/US/weather/12/15/winter.storm.ap/index.html</t>
   </si>
 </sst>
 </file>
@@ -625,7 +625,7 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="D2" t="s">
         <v>41</v>
@@ -642,7 +642,7 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -659,7 +659,7 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D4" t="s">
         <v>41</v>
@@ -676,7 +676,7 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="D5" t="s">
         <v>41</v>
@@ -710,7 +710,7 @@
         <v>38</v>
       </c>
       <c r="C7">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
